--- a/data/450_P_label_case.xlsx
+++ b/data/450_P_label_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B141"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,1122 +448,946 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.004737600000000001</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01119791742533823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0094751</v>
+        <v>0.004737600000000001</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07551059887823146</v>
+        <v>0.01119791742533823</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.014213</v>
+        <v>0.0094751</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1637194653330251</v>
+        <v>0.07551059887823146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01895</v>
+        <v>0.014213</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2289021160869872</v>
+        <v>0.1637194653330251</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.023688</v>
+        <v>0.01895</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2463165666829184</v>
+        <v>0.2289021160869872</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.02863</v>
+        <v>0.023688</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2394176647515071</v>
+        <v>0.2463165666829184</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.033573</v>
+        <v>0.02863</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2168374906624505</v>
+        <v>0.2394176647515071</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.038515</v>
+        <v>0.033573</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1908453845461025</v>
+        <v>0.2168374906624505</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.043458</v>
+        <v>0.038515</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1663680141938065</v>
+        <v>0.1908453845461025</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.048401</v>
+        <v>0.043458</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1446045064944032</v>
+        <v>0.1663680141938065</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.053552</v>
+        <v>0.048401</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1253910299275383</v>
+        <v>0.1446045064944032</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.058703</v>
+        <v>0.053552</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1092187790551124</v>
+        <v>0.1253910299275383</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.06385299999999999</v>
+        <v>0.058703</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09597782321427005</v>
+        <v>0.1092187790551124</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.069004</v>
+        <v>0.06385299999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>0.08511638720805748</v>
+        <v>0.09597782321427005</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.074155</v>
+        <v>0.069004</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07588373974073623</v>
+        <v>0.08511638720805748</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.07951699999999999</v>
+        <v>0.074155</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0680074135275703</v>
+        <v>0.07588373974073623</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.084879</v>
+        <v>0.07951699999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>0.06138941988141076</v>
+        <v>0.0680074135275703</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.08488</v>
+        <v>0.084879</v>
       </c>
       <c r="B19" t="n">
-        <v>0.06147577430533559</v>
+        <v>0.06138941988141076</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.090242</v>
+        <v>0.08488</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05610781834017263</v>
+        <v>0.06147577430533559</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.09560399999999999</v>
+        <v>0.090242</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05168691052025064</v>
+        <v>0.05610781834017263</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.10097</v>
+        <v>0.09560399999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>0.04793498792349313</v>
+        <v>0.05168691052025064</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.10654</v>
+        <v>0.10097</v>
       </c>
       <c r="B23" t="n">
-        <v>0.04458315795039774</v>
+        <v>0.04793498792349313</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.11212</v>
+        <v>0.10654</v>
       </c>
       <c r="B24" t="n">
-        <v>0.04172274002040092</v>
+        <v>0.04458315795039774</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.11769</v>
+        <v>0.11212</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03928188530640132</v>
+        <v>0.04172274002040092</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.12327</v>
+        <v>0.11769</v>
       </c>
       <c r="B26" t="n">
-        <v>0.03718000352547005</v>
+        <v>0.03928188530640132</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.12884</v>
+        <v>0.12327</v>
       </c>
       <c r="B27" t="n">
-        <v>0.03533069911023281</v>
+        <v>0.03718000352547005</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.13463</v>
+        <v>0.12884</v>
       </c>
       <c r="B28" t="n">
-        <v>0.03354493061319534</v>
+        <v>0.03533069911023281</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.14042</v>
+        <v>0.13463</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03191947918589855</v>
+        <v>0.03354493061319534</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.14621</v>
+        <v>0.14042</v>
       </c>
       <c r="B30" t="n">
-        <v>0.03042624929072554</v>
+        <v>0.03191947918589855</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.152</v>
+        <v>0.14621</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02904379574139923</v>
+        <v>0.03042624929072554</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.15779</v>
+        <v>0.152</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02775345791110206</v>
+        <v>0.02904379574139923</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.1638</v>
+        <v>0.15779</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02647241935274165</v>
+        <v>0.02775345791110206</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.16981</v>
+        <v>0.1638</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02532221122517422</v>
+        <v>0.02647241935274165</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.17581</v>
+        <v>0.16981</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02429846796911327</v>
+        <v>0.02532221122517422</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.18182</v>
+        <v>0.17581</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02339621019503779</v>
+        <v>0.02429846796911327</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.18782</v>
+        <v>0.18182</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02260507297112181</v>
+        <v>0.02339621019503779</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.19404</v>
+        <v>0.18782</v>
       </c>
       <c r="B38" t="n">
-        <v>0.02184969961483149</v>
+        <v>0.02260507297112181</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.20026</v>
+        <v>0.19404</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02116398096227371</v>
+        <v>0.02184969961483149</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.20649</v>
+        <v>0.20026</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02053069792678812</v>
+        <v>0.02116398096227371</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.21271</v>
+        <v>0.20649</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01993846852709392</v>
+        <v>0.02053069792678812</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.21893</v>
+        <v>0.21271</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01937649765626409</v>
+        <v>0.01993846852709392</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.22536</v>
+        <v>0.21893</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01881653191957489</v>
+        <v>0.01937649765626409</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.2318</v>
+        <v>0.22536</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01828391873581431</v>
+        <v>0.01881653191957489</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.23823</v>
+        <v>0.2318</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01777308740918744</v>
+        <v>0.01828391873581431</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.24467</v>
+        <v>0.23823</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01727661049844211</v>
+        <v>0.01777308740918744</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.25111</v>
+        <v>0.24467</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01678817166887983</v>
+        <v>0.01727661049844211</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.25775</v>
+        <v>0.25111</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01628904445465083</v>
+        <v>0.01678817166887983</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.2644</v>
+        <v>0.25775</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01581326374536321</v>
+        <v>0.01628904445465083</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.27105</v>
+        <v>0.2644</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01537086630216675</v>
+        <v>0.01581326374536321</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.2777</v>
+        <v>0.27105</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01497012101405815</v>
+        <v>0.01537086630216675</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.28435</v>
+        <v>0.2777</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01461715765442451</v>
+        <v>0.01497012101405815</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.2912</v>
+        <v>0.28435</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01427885376951065</v>
+        <v>0.01461715765442451</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.29806</v>
+        <v>0.2912</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01396922699872478</v>
+        <v>0.01427885376951065</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.30492</v>
+        <v>0.29806</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01368077489557196</v>
+        <v>0.01396922699872478</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.31178</v>
+        <v>0.30492</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01340834580280157</v>
+        <v>0.01368077489557196</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.31864</v>
+        <v>0.31178</v>
       </c>
       <c r="B57" t="n">
-        <v>0.01314791784503448</v>
+        <v>0.01340834580280157</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.3257</v>
+        <v>0.31864</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01288302499090125</v>
+        <v>0.01314791784503448</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.33276</v>
+        <v>0.3257</v>
       </c>
       <c r="B59" t="n">
-        <v>0.01262594128426124</v>
+        <v>0.01288302499090125</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.33983</v>
+        <v>0.33276</v>
       </c>
       <c r="B60" t="n">
-        <v>0.01236590593684329</v>
+        <v>0.01262594128426124</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.34689</v>
+        <v>0.33983</v>
       </c>
       <c r="B61" t="n">
-        <v>0.01209153898954289</v>
+        <v>0.01236590593684329</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.35395</v>
+        <v>0.34689</v>
       </c>
       <c r="B62" t="n">
-        <v>0.01179485797815034</v>
+        <v>0.01209153898954289</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.36122</v>
+        <v>0.35395</v>
       </c>
       <c r="B63" t="n">
-        <v>0.01147031395337636</v>
+        <v>0.01179485797815034</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.36848</v>
+        <v>0.36122</v>
       </c>
       <c r="B64" t="n">
-        <v>0.01114903302028194</v>
+        <v>0.01147031395337636</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.37575</v>
+        <v>0.36848</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01083415506601108</v>
+        <v>0.01114903302028194</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.38301</v>
+        <v>0.37575</v>
       </c>
       <c r="B66" t="n">
-        <v>0.01052581241075989</v>
+        <v>0.01083415506601108</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.39028</v>
+        <v>0.38301</v>
       </c>
       <c r="B67" t="n">
-        <v>0.01022591095549903</v>
+        <v>0.01052581241075989</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.39773</v>
+        <v>0.39028</v>
       </c>
       <c r="B68" t="n">
-        <v>0.009908808895440229</v>
+        <v>0.01022591095549903</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.40519</v>
+        <v>0.39773</v>
       </c>
       <c r="B69" t="n">
-        <v>0.009609615671127957</v>
+        <v>0.009908808895440229</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.41265</v>
+        <v>0.40519</v>
       </c>
       <c r="B70" t="n">
-        <v>0.009327530750841834</v>
+        <v>0.009609615671127957</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.42011</v>
+        <v>0.41265</v>
       </c>
       <c r="B71" t="n">
-        <v>0.009060597045479336</v>
+        <v>0.009327530750841834</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.42757</v>
+        <v>0.42011</v>
       </c>
       <c r="B72" t="n">
-        <v>0.00880644867475705</v>
+        <v>0.009060597045479336</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.43522</v>
+        <v>0.42757</v>
       </c>
       <c r="B73" t="n">
-        <v>0.008537166512580211</v>
+        <v>0.00880644867475705</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.44286</v>
+        <v>0.43522</v>
       </c>
       <c r="B74" t="n">
-        <v>0.008275087632505113</v>
+        <v>0.008537166512580211</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.45051</v>
+        <v>0.44286</v>
       </c>
       <c r="B75" t="n">
-        <v>0.008020194443679489</v>
+        <v>0.008275087632505113</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.45816</v>
+        <v>0.45051</v>
       </c>
       <c r="B76" t="n">
-        <v>0.007773914109775414</v>
+        <v>0.008020194443679489</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.4658</v>
+        <v>0.45816</v>
       </c>
       <c r="B77" t="n">
-        <v>0.007537755478979061</v>
+        <v>0.007773914109775414</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.47363</v>
+        <v>0.4658</v>
       </c>
       <c r="B78" t="n">
-        <v>0.007298331453973175</v>
+        <v>0.007537755478979061</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.4814600000000001</v>
+        <v>0.47363</v>
       </c>
       <c r="B79" t="n">
-        <v>0.007075598031484403</v>
+        <v>0.007298331453973175</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.48928</v>
+        <v>0.4814600000000001</v>
       </c>
       <c r="B80" t="n">
-        <v>0.006869309349923159</v>
+        <v>0.007075598031484403</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.4971100000000001</v>
+        <v>0.48928</v>
       </c>
       <c r="B81" t="n">
-        <v>0.006679350592424761</v>
+        <v>0.006869309349923159</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.50493</v>
+        <v>0.4971100000000001</v>
       </c>
       <c r="B82" t="n">
-        <v>0.006512322763873301</v>
+        <v>0.006679350592424761</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.5049399999999999</v>
+        <v>0.50493</v>
       </c>
       <c r="B83" t="n">
-        <v>0.006505503085032766</v>
+        <v>0.006512322763873301</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.51293</v>
+        <v>0.5049399999999999</v>
       </c>
       <c r="B84" t="n">
-        <v>0.006334512107915734</v>
+        <v>0.006505503085032766</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.52093</v>
+        <v>0.51293</v>
       </c>
       <c r="B85" t="n">
-        <v>0.006170311999024583</v>
+        <v>0.006334512107915734</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.5289199999999999</v>
+        <v>0.52093</v>
       </c>
       <c r="B86" t="n">
-        <v>0.006010388498562608</v>
+        <v>0.006170311999024583</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.53692</v>
+        <v>0.5289199999999999</v>
       </c>
       <c r="B87" t="n">
-        <v>0.005852493327647257</v>
+        <v>0.006010388498562608</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.54491</v>
+        <v>0.53692</v>
       </c>
       <c r="B88" t="n">
-        <v>0.005694296879627686</v>
+        <v>0.005852493327647257</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.55307</v>
+        <v>0.54491</v>
       </c>
       <c r="B89" t="n">
-        <v>0.005523339625180797</v>
+        <v>0.005694296879627686</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.56123</v>
+        <v>0.55307</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0053436153267131</v>
+        <v>0.005523339625180797</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.56938</v>
+        <v>0.56123</v>
       </c>
       <c r="B91" t="n">
-        <v>0.00515904900297138</v>
+        <v>0.0053436153267131</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.5775399999999999</v>
+        <v>0.56938</v>
       </c>
       <c r="B92" t="n">
-        <v>0.004974182861427296</v>
+        <v>0.00515904900297138</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.5856899999999999</v>
+        <v>0.5775399999999999</v>
       </c>
       <c r="B93" t="n">
-        <v>0.004793520424303941</v>
+        <v>0.004974182861427296</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.594</v>
+        <v>0.5856899999999999</v>
       </c>
       <c r="B94" t="n">
-        <v>0.004611659118462708</v>
+        <v>0.004793520424303941</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.594</v>
       </c>
       <c r="B95" t="n">
-        <v>0.004435903343546015</v>
+        <v>0.004611659118462708</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.6106</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="B96" t="n">
-        <v>0.004268468652060709</v>
+        <v>0.004435903343546015</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.6189100000000001</v>
+        <v>0.6106</v>
       </c>
       <c r="B97" t="n">
-        <v>0.004110671289292799</v>
+        <v>0.004268468652060709</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.62721</v>
+        <v>0.6189100000000001</v>
       </c>
       <c r="B98" t="n">
-        <v>0.003963602530853915</v>
+        <v>0.004110671289292799</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.63565</v>
+        <v>0.62721</v>
       </c>
       <c r="B99" t="n">
-        <v>0.003820502379761264</v>
+        <v>0.003963602530853915</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.6440899999999999</v>
+        <v>0.63565</v>
       </c>
       <c r="B100" t="n">
-        <v>0.003683564219713571</v>
+        <v>0.003820502379761264</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.65252</v>
+        <v>0.6440899999999999</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0035488331360568</v>
+        <v>0.003683564219713571</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.66096</v>
+        <v>0.65252</v>
       </c>
       <c r="B102" t="n">
-        <v>0.003412674231914707</v>
+        <v>0.0035488331360568</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.6694</v>
+        <v>0.66096</v>
       </c>
       <c r="B103" t="n">
-        <v>0.003272107319831814</v>
+        <v>0.003412674231914707</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.67796</v>
+        <v>0.6694</v>
       </c>
       <c r="B104" t="n">
-        <v>0.003124530042538578</v>
+        <v>0.003272107319831814</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.68652</v>
+        <v>0.67796</v>
       </c>
       <c r="B105" t="n">
-        <v>0.002972589637214922</v>
+        <v>0.003124530042538578</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.69508</v>
+        <v>0.68652</v>
       </c>
       <c r="B106" t="n">
-        <v>0.002819176132983107</v>
+        <v>0.002972589637214922</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.7036399999999999</v>
+        <v>0.69508</v>
       </c>
       <c r="B107" t="n">
-        <v>0.002666814431200005</v>
+        <v>0.002819176132983107</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.71221</v>
+        <v>0.7036399999999999</v>
       </c>
       <c r="B108" t="n">
-        <v>0.002517609569015216</v>
+        <v>0.002666814431200005</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.72087</v>
+        <v>0.71221</v>
       </c>
       <c r="B109" t="n">
-        <v>0.002369273376013503</v>
+        <v>0.002517609569015216</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.72954</v>
+        <v>0.72087</v>
       </c>
       <c r="B110" t="n">
-        <v>0.002224157535858525</v>
+        <v>0.002369273376013503</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.73821</v>
+        <v>0.72954</v>
       </c>
       <c r="B111" t="n">
-        <v>0.002083820490262379</v>
+        <v>0.002224157535858525</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.74688</v>
+        <v>0.73821</v>
       </c>
       <c r="B112" t="n">
-        <v>0.00194963689738822</v>
+        <v>0.002083820490262379</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.7555500000000001</v>
+        <v>0.74688</v>
       </c>
       <c r="B113" t="n">
-        <v>0.001822689284035811</v>
+        <v>0.00194963689738822</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.76431</v>
+        <v>0.7555500000000001</v>
       </c>
       <c r="B114" t="n">
-        <v>0.001700159155911594</v>
+        <v>0.001822689284035811</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.77307</v>
+        <v>0.76431</v>
       </c>
       <c r="B115" t="n">
-        <v>0.001580851114123423</v>
+        <v>0.001700159155911594</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.78183</v>
+        <v>0.77307</v>
       </c>
       <c r="B116" t="n">
-        <v>0.001465218074747272</v>
+        <v>0.001580851114123423</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.79059</v>
+        <v>0.78183</v>
       </c>
       <c r="B117" t="n">
-        <v>0.001353635601203952</v>
+        <v>0.001465218074747272</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.79935</v>
+        <v>0.79059</v>
       </c>
       <c r="B118" t="n">
-        <v>0.001246791746763066</v>
+        <v>0.001353635601203952</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.80819</v>
+        <v>0.79935</v>
       </c>
       <c r="B119" t="n">
-        <v>0.001144166298144751</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>0.81702</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.001047036054955771</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>0.82586</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.0009548592312366367</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>0.8347</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.0008668483010332859</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>0.84354</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.0007824031218067851</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>0.8524299999999999</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.0007003005984199565</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>0.8613299999999999</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.0006204570135297084</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>0.8702299999999999</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.0005435153881548543</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>0.87913</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.0004700439964551146</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>0.88802</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.0004006650237391067</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>0.8969600000000001</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.0003360354213773672</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>0.9059</v>
-      </c>
-      <c r="B130" t="n">
-        <v>0.0002769503230365193</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>0.91484</v>
-      </c>
-      <c r="B131" t="n">
-        <v>0.0002231597451492272</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>0.9148500000000001</v>
-      </c>
-      <c r="B132" t="n">
-        <v>0.0002231854111587372</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>0.92379</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0.0001744554874616821</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>0.9327299999999999</v>
-      </c>
-      <c r="B134" t="n">
-        <v>0.0001309920987777073</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>0.9416899999999999</v>
-      </c>
-      <c r="B135" t="n">
-        <v>9.320911549040196e-05</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>0.9506600000000001</v>
-      </c>
-      <c r="B136" t="n">
-        <v>6.200733765114019e-05</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>0.9596299999999999</v>
-      </c>
-      <c r="B137" t="n">
-        <v>3.737350054262322e-05</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>0.96859</v>
-      </c>
-      <c r="B138" t="n">
-        <v>1.904255218270755e-05</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>0.97756</v>
-      </c>
-      <c r="B139" t="n">
-        <v>6.688916626851453e-06</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>0.98654</v>
-      </c>
-      <c r="B140" t="n">
-        <v>-1.672734022730533e-07</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>0.99551</v>
-      </c>
-      <c r="B141" t="n">
-        <v>-1.760619321414325e-06</v>
+        <v>0.001246791746763066</v>
       </c>
     </row>
   </sheetData>
